--- a/api/template/server_template.xlsx
+++ b/api/template/server_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="3" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
-    <t>机架</t>
-  </si>
-  <si>
     <t>机柜</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>设备名称</t>
+  </si>
+  <si>
+    <t>设备类型</t>
   </si>
   <si>
     <t>设备型号</t>
@@ -1089,16 +1089,16 @@
   <sheetPr/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="20.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
@@ -2450,8 +2450,8 @@
       <c r="S68" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AA66">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:AB66">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2464,8 +2464,8 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/api/template/server_template.xlsx
+++ b/api/template/server_template.xlsx
@@ -31,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>机房号</t>
+  </si>
   <si>
     <t>机柜</t>
   </si>
@@ -78,15 +81,12 @@
     <t>操作系统</t>
   </si>
   <si>
-    <t>购买日期</t>
+    <t>采购合同编号</t>
   </si>
   <si>
     <t>厂商</t>
   </si>
   <si>
-    <t>批次</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -99,10 +99,10 @@
     <t>内存</t>
   </si>
   <si>
-    <t>硬盘</t>
-  </si>
-  <si>
-    <t>RAID</t>
+    <t>系统盘</t>
+  </si>
+  <si>
+    <t>数据盘</t>
   </si>
   <si>
     <t>网卡</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>IB卡</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>配件变更</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +141,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,137 +636,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,6 +780,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,14 +1113,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="15.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="15.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="30.625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="3"/>
   </cols>
@@ -1125,10 +1140,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2450,7 +2465,7 @@
       <c r="S68" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AB66">
+  <sortState ref="A2:AD66">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,25 +2477,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
+    <row r="1" ht="15.75" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -2505,6 +2517,12 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/api/template/server_template.xlsx
+++ b/api/template/server_template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>机柜</t>
   </si>
@@ -99,10 +99,10 @@
     <t>内存</t>
   </si>
   <si>
-    <t>硬盘</t>
-  </si>
-  <si>
-    <t>RAID</t>
+    <t>系统盘</t>
+  </si>
+  <si>
+    <t>数据盘</t>
   </si>
   <si>
     <t>网卡</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>IB卡</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>配件变更</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1098,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2462,23 +2468,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
+    <row r="1" ht="15.75" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2505,6 +2508,12 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/api/template/server_template.xlsx
+++ b/api/template/server_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1"/>
+    <workbookView windowHeight="17775" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="3" r:id="rId1"/>
@@ -33,6 +33,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
+    <t>机房号</t>
+  </si>
+  <si>
     <t>机柜</t>
   </si>
   <si>
@@ -78,13 +81,10 @@
     <t>操作系统</t>
   </si>
   <si>
-    <t>购买日期</t>
+    <t>采购合同编号</t>
   </si>
   <si>
     <t>厂商</t>
-  </si>
-  <si>
-    <t>批次</t>
   </si>
   <si>
     <t>备注</t>
@@ -1095,22 +1095,21 @@
   <sheetPr/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="15.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="20.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="15.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="30.625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="3"/>
   </cols>
@@ -1131,7 +1130,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2456,7 +2455,7 @@
       <c r="S68" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AB66">
+  <sortState ref="A2:AD66">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2483,7 +2482,7 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>

--- a/api/template/server_template.xlsx
+++ b/api/template/server_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" firstSheet="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="asset" sheetId="3" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +141,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,137 +636,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +780,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,10 +1105,10 @@
   <sheetPr/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1133,7 +1143,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
